--- a/biology/Microbiologie/Mycoplasmatota/Mycoplasmatota.xlsx
+++ b/biology/Microbiologie/Mycoplasmatota/Mycoplasmatota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mycoplasmatota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Mycoplasma qui est le genre type de cet embranchement.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon est proposé par R.G.E. Murray en 1984 dans la première édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Tenericutes »[2]. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity[1] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Mycoplasma, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[3]). Cette nouvelle dénomination est délibérément présentée comme une correction (nom. corrig.) de l'ancienne, et non comme un nom nouveau (nom. nov.), afin de laisser à R.G.E. Murray la paternité du taxon[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est proposé par R.G.E. Murray en 1984 dans la première édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Tenericutes ». Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Mycoplasma, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021). Cette nouvelle dénomination est délibérément présentée comme une correction (nom. corrig.) de l'ancienne, et non comme un nom nouveau (nom. nov.), afin de laisser à R.G.E. Murray la paternité du taxon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022 selon la LPSN  (29 novembre 2022)[5] cet embranchement ne comporte qu'une seule classe validement publiée, les Mollicutes Edward &amp; Freundt 1967.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022 selon la LPSN  (29 novembre 2022) cet embranchement ne comporte qu'une seule classe validement publiée, les Mollicutes Edward &amp; Freundt 1967.
 Il comporte aussi une classe Candidatus : « Ca. Izemoplasma » Zheng et al. 2021.
 </t>
         </is>
